--- a/Combined_with_LTP.xlsx
+++ b/Combined_with_LTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imadc\PycharmProjects\fwdproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76385380-522D-4BDE-A663-CD3C58ADDF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92849103-6001-4801-A50E-7796EFEE657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,17 +624,17 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,65 +1037,65 @@
       <c r="S1" s="15"/>
       <c r="T1" s="16"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="1">
         <v>0.78600000000000003</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="1">
         <v>1.236</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>1.6180000000000001</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>0</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="1">
         <v>0.38200000000000001</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="1">
         <v>0.5</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="1">
         <v>0.78600000000000003</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="1">
         <v>1.236</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>1.6180000000000001</v>
       </c>
     </row>
@@ -1103,10 +1103,10 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>97.25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>75.599999999999994</v>
       </c>
       <c r="D3">
@@ -1130,10 +1130,10 @@
       <c r="J3">
         <v>102.92</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>111.36</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="7">
         <v>84.75</v>
       </c>
       <c r="M3">
@@ -1145,7 +1145,7 @@
       <c r="O3">
         <v>91.22</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="2">
         <v>97.25</v>
       </c>
       <c r="Q3">
@@ -1157,7 +1157,7 @@
       <c r="S3">
         <v>100.76</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="8">
         <v>105.7</v>
       </c>
     </row>
@@ -1165,10 +1165,10 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="2">
         <v>1682.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>1489</v>
       </c>
       <c r="D4">
@@ -1192,10 +1192,10 @@
       <c r="J4">
         <v>1776.25</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="3">
         <v>1682.2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="7">
         <v>1644.05</v>
       </c>
       <c r="M4">
@@ -1219,7 +1219,7 @@
       <c r="S4">
         <v>1739.65</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="8">
         <v>1769.2</v>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       <c r="B5">
         <v>116.95</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>87.8</v>
       </c>
       <c r="D5" s="12">
@@ -1254,10 +1254,10 @@
       <c r="J5">
         <v>134.71</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>149.19999999999999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="7">
         <v>102.15</v>
       </c>
       <c r="M5" s="12">
@@ -1281,7 +1281,7 @@
       <c r="S5">
         <v>131.32</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="8">
         <v>140.33000000000001</v>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       <c r="B6">
         <v>790.95</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>656.55</v>
       </c>
       <c r="D6">
@@ -1316,10 +1316,10 @@
       <c r="J6">
         <v>837.44</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="8">
         <v>893.34</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="7">
         <v>696.25</v>
       </c>
       <c r="M6">
@@ -1343,7 +1343,7 @@
       <c r="S6">
         <v>828.07</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="8">
         <v>868.81</v>
       </c>
     </row>
@@ -1351,61 +1351,61 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>164.2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>132.9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="10">
         <v>142.19999999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="10">
         <v>147.94999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>152.6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="10">
         <v>157.25</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>163.87</v>
       </c>
       <c r="I7" s="13">
         <v>172.3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="10">
         <v>181.6</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="11">
         <v>196.65</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>140.65</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="4">
         <v>164.2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="10">
         <v>152.74</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="10">
         <v>156.47999999999999</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="10">
         <v>160.21</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="10">
         <v>165.53</v>
       </c>
       <c r="R7" s="13">
         <v>172.3</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="10">
         <v>179.77</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="11">
         <v>191.86</v>
       </c>
     </row>
